--- a/test/rembg/time_order.xlsx
+++ b/test/rembg/time_order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t>序号</t>
   </si>
@@ -28,22 +28,298 @@
     <t>处理时间</t>
   </si>
   <si>
-    <t>test2</t>
+    <t>O1CN01Hin2DC1ctryEH0Vpz_!!167873659.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>2.84 s</t>
+  </si>
+  <si>
+    <t>D-CONVERSE-06-16-22-GBL-HP-P2-SUMMER-HEAT-RUN-STAR-MOTION-2</t>
+  </si>
+  <si>
+    <t>3.34 s</t>
+  </si>
+  <si>
+    <t>02-927</t>
+  </si>
+  <si>
+    <t>2.97 s</t>
+  </si>
+  <si>
+    <t>O1CN01dyYJxH1oPtOYNu0Vv_!!3108485218.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>2.77 s</t>
+  </si>
+  <si>
+    <t>O1CN01YcUA682J5yIP6tvig_!!2213974649371</t>
+  </si>
+  <si>
+    <t>4.59 s</t>
+  </si>
+  <si>
+    <t>O1CN01bdJE111bfpy1W9I0G_!!876583493</t>
+  </si>
+  <si>
+    <t>4.21 s</t>
+  </si>
+  <si>
+    <t>628807b266ce49.95829316</t>
   </si>
   <si>
     <t>png</t>
   </si>
   <si>
-    <t>1.7861359119415283 s</t>
+    <t>4.04 s</t>
+  </si>
+  <si>
+    <t>O1CN01AhUfEa2CKRUecpgLN_!!92688455.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>2.96 s</t>
+  </si>
+  <si>
+    <t>O1CN015QDtQa285Y47ycvCE_!!3605347881.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>2.78 s</t>
+  </si>
+  <si>
+    <t>O1CN01nfxN9C1xh8qpUAOsN_!!2259016474</t>
+  </si>
+  <si>
+    <t>2.98 s</t>
+  </si>
+  <si>
+    <t>98150-22VX_F</t>
+  </si>
+  <si>
+    <t>webp</t>
+  </si>
+  <si>
+    <t>3.10 s</t>
+  </si>
+  <si>
+    <t>eb8f4c4e-1ada-4c9e-a95a-f182031cfb51</t>
+  </si>
+  <si>
+    <t>3.79 s</t>
+  </si>
+  <si>
+    <t>O1CN01nzgzZG1oPtJXjAGEp_!!3108485218</t>
+  </si>
+  <si>
+    <t>3.03 s</t>
+  </si>
+  <si>
+    <t>f915cc20-f3c6-426e-8e47-4577190f7d83</t>
+  </si>
+  <si>
+    <t>3.12 s</t>
+  </si>
+  <si>
+    <t>xeric-leadfoot-automatic-gunmetal-orange-2_800c2aea-167a-4b96-97bf-8556736c2c3b_720x</t>
+  </si>
+  <si>
+    <t>3.40 s</t>
+  </si>
+  <si>
+    <t>ed0e6efb-0e43-474d-a09c-0a270a9c00f5</t>
+  </si>
+  <si>
+    <t>3.83 s</t>
+  </si>
+  <si>
+    <t>homepage-opternative-grid</t>
+  </si>
+  <si>
+    <t>O1CN01NVlKjz1GaFOADKpmu_!!738840638-0-lubanu-s.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>4.12 s</t>
+  </si>
+  <si>
+    <t>O1CN01sCOsdn1iCFsxoq1hI_!!0-item_pic.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>3.60 s</t>
+  </si>
+  <si>
+    <t>Acrople-Jogger-Black-Front-View</t>
+  </si>
+  <si>
+    <t>3.95 s</t>
+  </si>
+  <si>
+    <t>O1CN01BrqcSl1nfdPrf5SSc_!!2111455117.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>3.17 s</t>
+  </si>
+  <si>
+    <t>O1CN0103BThs1bfqDmJGrAu_!!876583493.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>2.60 s</t>
+  </si>
+  <si>
+    <t>O1CN01xrQAtj1YAkUECeE7F_!!1695303019.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>2.59 s</t>
+  </si>
+  <si>
+    <t>O1CN01qhJfFy1PJbVyiL4Tm_!!391751820</t>
+  </si>
+  <si>
+    <t>3.32 s</t>
+  </si>
+  <si>
+    <t>O1CN01Q5o4xa1Iuyb8Z3URT_!!2421830954</t>
+  </si>
+  <si>
+    <t>4.78 s</t>
+  </si>
+  <si>
+    <t>O1CN01HvCSgF26eEuUNdZuX_!!0-item_pic.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>3.14 s</t>
+  </si>
+  <si>
+    <t>O1CN01yrU0f52CZ65hVx19M_!!0-item_pic.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>5.06 s</t>
+  </si>
+  <si>
+    <t>Beta-LT-Jacket-Hadron-Fluidity-Front-View</t>
+  </si>
+  <si>
+    <t>4.39 s</t>
+  </si>
+  <si>
+    <t>d9fbad7d010f8d43</t>
+  </si>
+  <si>
+    <t>3.64 s</t>
+  </si>
+  <si>
+    <t>Konseal-55-Backpack-Neptune-Back-View</t>
+  </si>
+  <si>
+    <t>3.67 s</t>
+  </si>
+  <si>
+    <t>O1CN01ra3Zd31iCFsxoZmLa_!!733534376</t>
+  </si>
+  <si>
+    <t>3.47 s</t>
+  </si>
+  <si>
+    <t>O1CN01tJMOUo1rLG7FFPzQS_!!181395614</t>
+  </si>
+  <si>
+    <t>6.35 s</t>
+  </si>
+  <si>
+    <t>2faa6023-1af9-4135-8dfc-8577ab09e37c</t>
+  </si>
+  <si>
+    <t>4.47 s</t>
+  </si>
+  <si>
+    <t>O1CN01eAxs8z2KGnFJM1Oo3_!!856169530</t>
+  </si>
+  <si>
+    <t>6.29 s</t>
+  </si>
+  <si>
+    <t>cc307_b4rh5_a0</t>
+  </si>
+  <si>
+    <t>4.27 s</t>
+  </si>
+  <si>
+    <t>O1CN01joq6MU1eG8pyNoSyY_!!3697853843.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>2.76 s</t>
+  </si>
+  <si>
+    <t>ca127_b4iy_a0</t>
+  </si>
+  <si>
+    <t>4.08 s</t>
+  </si>
+  <si>
+    <t>O1CN01jP86rN1QpUcyWOcTx_!!1909132025.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>2.73 s</t>
+  </si>
+  <si>
+    <t>xeric-vendetta-wandering-hour-automatic-5_720x</t>
+  </si>
+  <si>
+    <t>2.64 s</t>
+  </si>
+  <si>
+    <t>O1CN0103avRu1LHzkaUFMYb_!!0-item_pic.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>D-CONVERSE-06-16-22-GBL-HP-BACKUP-MARBLED-1</t>
+  </si>
+  <si>
+    <t>3.36 s</t>
+  </si>
+  <si>
+    <t>O1CN01pGzOYj1yAucFrBlZb_!!664396539</t>
+  </si>
+  <si>
+    <t>3.70 s</t>
+  </si>
+  <si>
+    <t>Contenta-Dress-Melange-Atmos-Heather-Women-s-Front-View</t>
+  </si>
+  <si>
+    <t>3.31 s</t>
+  </si>
+  <si>
+    <t>O1CN019NcSGW2NUwFnzs79L_!!729289967.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>2.44 s</t>
+  </si>
+  <si>
+    <t>O1CN01pcSF4r1UQ5Gz4GDVi_!!2211935182511</t>
+  </si>
+  <si>
+    <t>799153b0-1715-425f-b672-7bd6926680ff</t>
+  </si>
+  <si>
+    <t>2.62 s</t>
+  </si>
+  <si>
+    <t>O1CN01uMDed51sYpSyH3cHI_!!1813135779.jpg_430x430q90</t>
+  </si>
+  <si>
+    <t>2.54 s</t>
   </si>
   <si>
     <t>总时间：</t>
   </si>
   <si>
+    <t>165.80 s</t>
+  </si>
+  <si>
     <t>平均时间：</t>
   </si>
   <si>
-    <t>0.03645175330492915 s</t>
+    <t>3.53 s</t>
   </si>
 </sst>
 </file>
@@ -375,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,34 +677,678 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
